--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_4.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_4</t>
+          <t>model_26_4_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999874050665912</v>
+        <v>0.9999770883131851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991577767508399</v>
+        <v>0.999055431844164</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999928267042846</v>
+        <v>0.9998938733699413</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999821312225738</v>
+        <v>0.9998502534770579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999565447639337</v>
+        <v>0.9999358483145446</v>
       </c>
       <c r="G2" t="n">
-        <v>1.175681748341253e-05</v>
+        <v>2.138705393491294e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007861784337629496</v>
+        <v>0.0008817129117227806</v>
       </c>
       <c r="I2" t="n">
-        <v>2.711885214143283e-05</v>
+        <v>2.533296306992014e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>7.455473808276739e-06</v>
+        <v>0.0001079511249075915</v>
       </c>
       <c r="K2" t="n">
-        <v>1.728677384759496e-05</v>
+        <v>6.664204398875581e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003204870707454107</v>
+        <v>0.0002291822534573157</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003428821588157152</v>
+        <v>0.004624613922795387</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00001439420961</v>
+        <v>1.000026184784931</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003574793621804185</v>
+        <v>0.004821493311759351</v>
       </c>
       <c r="P2" t="n">
-        <v>112.7021545485547</v>
+        <v>111.5054495506177</v>
       </c>
       <c r="Q2" t="n">
-        <v>167.5515666676238</v>
+        <v>166.3548616696867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_3</t>
+          <t>model_26_4_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999876361982002</v>
+        <v>0.9999774029545943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991574564880182</v>
+        <v>0.9990540245338234</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999493055871196</v>
+        <v>0.9998952704433834</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999870772548161</v>
+        <v>0.9998524651823261</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999691345047123</v>
+        <v>0.9999367774092849</v>
       </c>
       <c r="G3" t="n">
-        <v>1.154106627192237e-05</v>
+        <v>2.109334999065019e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007864773850491431</v>
+        <v>0.0008830265741519294</v>
       </c>
       <c r="I3" t="n">
-        <v>1.916516956560761e-05</v>
+        <v>2.499947457701045e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>5.39181757947682e-06</v>
+        <v>0.0001063567234686225</v>
       </c>
       <c r="K3" t="n">
-        <v>1.227849357254222e-05</v>
+        <v>6.567688193402271e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003089422751837546</v>
+        <v>0.0002270011686536036</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003397214487182458</v>
+        <v>0.004592749720009811</v>
       </c>
       <c r="N3" t="n">
-        <v>1.0000141300592</v>
+        <v>1.000025825194749</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003541840941105279</v>
+        <v>0.004788272583893199</v>
       </c>
       <c r="P3" t="n">
-        <v>112.7391978064784</v>
+        <v>111.533105466955</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.5886099255474</v>
+        <v>166.382517586024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_5</t>
+          <t>model_26_4_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999868578759656</v>
+        <v>0.9999777396621201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991573564244024</v>
+        <v>0.9990524471718454</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999065223569739</v>
+        <v>0.9998966037025505</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999771040466364</v>
+        <v>0.9998548936539946</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999435767344935</v>
+        <v>0.999937776179855</v>
       </c>
       <c r="G4" t="n">
-        <v>1.226759591353234e-05</v>
+        <v>2.077904829496498e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007865707900422687</v>
+        <v>0.0008844989723202503</v>
       </c>
       <c r="I4" t="n">
-        <v>3.533949359306102e-05</v>
+        <v>2.468121887415554e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>9.552986001608861e-06</v>
+        <v>0.0001046060567868858</v>
       </c>
       <c r="K4" t="n">
-        <v>2.244553979789003e-05</v>
+        <v>6.46393392444401e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003301810730222217</v>
+        <v>0.0002245398291589179</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003502512799909851</v>
+        <v>0.004558404139056231</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000015019570325</v>
+        <v>1.000025440386148</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003651622021003035</v>
+        <v>0.004752464840453272</v>
       </c>
       <c r="P4" t="n">
-        <v>112.6170985010122</v>
+        <v>111.5631307448587</v>
       </c>
       <c r="Q4" t="n">
-        <v>167.4665106200812</v>
+        <v>166.4125428639277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_6</t>
+          <t>model_26_4_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999860824112478</v>
+        <v>0.9999780965178211</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991565076900689</v>
+        <v>0.9990506767191827</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998844627892387</v>
+        <v>0.9998978764695279</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999722926031179</v>
+        <v>0.9998575548795027</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999305702299121</v>
+        <v>0.999938841656172</v>
       </c>
       <c r="G5" t="n">
-        <v>1.299145818866839e-05</v>
+        <v>2.044593916226536e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007873630462874143</v>
+        <v>0.0008861516121669859</v>
       </c>
       <c r="I5" t="n">
-        <v>4.367917704467073e-05</v>
+        <v>2.437740296275882e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.156048714602993e-05</v>
+        <v>0.0001026875996395382</v>
       </c>
       <c r="K5" t="n">
-        <v>2.761961140813451e-05</v>
+        <v>6.353250130114849e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003382270675149365</v>
+        <v>0.000221810454201872</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00360436654471606</v>
+        <v>0.004521718607152081</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000015905815717</v>
+        <v>1.000025032551062</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003757811890591962</v>
+        <v>0.004714217529506443</v>
       </c>
       <c r="P5" t="n">
-        <v>112.5024369577459</v>
+        <v>111.5954525383325</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.351849076815</v>
+        <v>166.4448646574015</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_2</t>
+          <t>model_26_4_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999873998400278</v>
+        <v>0.9999784723780656</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999156251729144</v>
+        <v>0.9990486857344907</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999684013372443</v>
+        <v>0.9998989698760368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999917992983915</v>
+        <v>0.999860468791306</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999806853409505</v>
+        <v>0.9999399783395145</v>
       </c>
       <c r="G6" t="n">
-        <v>1.176169625089967e-05</v>
+        <v>2.00950901224114e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007876019745754546</v>
+        <v>0.0008880101089828233</v>
       </c>
       <c r="I6" t="n">
-        <v>1.194596594279254e-05</v>
+        <v>2.411640130185745e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>3.421617192541e-06</v>
+        <v>0.0001005869828714401</v>
       </c>
       <c r="K6" t="n">
-        <v>7.683496240191164e-06</v>
+        <v>6.235169208664879e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000295104724835817</v>
+        <v>0.0002187596468423212</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003429532949382419</v>
+        <v>0.004482754747073656</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000014400182825</v>
+        <v>1.000024602996497</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003575535267149532</v>
+        <v>0.004673594897238169</v>
       </c>
       <c r="P6" t="n">
-        <v>112.7013247737463</v>
+        <v>111.630070090511</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.5507368928153</v>
+        <v>166.47948220958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_7</t>
+          <t>model_26_4_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999851518027965</v>
+        <v>0.999978864846521</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991553108118157</v>
+        <v>0.9990464461045662</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9998626225351365</v>
+        <v>0.9998998113882895</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999676284902436</v>
+        <v>0.9998636528209418</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999177437334122</v>
+        <v>0.9999411775350597</v>
       </c>
       <c r="G7" t="n">
-        <v>1.386014032900417e-05</v>
+        <v>1.972873804668808e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007884802795998197</v>
+        <v>0.0008901007052090147</v>
       </c>
       <c r="I7" t="n">
-        <v>5.193594834240571e-05</v>
+        <v>2.391552807324117e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.350651683478724e-05</v>
+        <v>9.829164022060452e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.272207463974513e-05</v>
+        <v>6.110594395535005e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000345097332527768</v>
+        <v>0.0002175892725284323</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003722920940471899</v>
+        <v>0.004441704407847069</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000016969368233</v>
+        <v>1.000024154461119</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003881413392416559</v>
+        <v>0.004630796960084789</v>
       </c>
       <c r="P7" t="n">
-        <v>112.372986879012</v>
+        <v>111.6668684022327</v>
       </c>
       <c r="Q7" t="n">
-        <v>167.222398998081</v>
+        <v>166.5162805213017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_1</t>
+          <t>model_26_4_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999865086351162</v>
+        <v>0.9999792700978076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991540066071298</v>
+        <v>0.999043918867406</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999841981796925</v>
+        <v>0.9999003246950727</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999958616346382</v>
+        <v>0.999867117529697</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999903217036691</v>
+        <v>0.9999424408889765</v>
       </c>
       <c r="G8" t="n">
-        <v>1.259359691661597e-05</v>
+        <v>1.93504537590877e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007896976974261542</v>
+        <v>0.0008924597701651207</v>
       </c>
       <c r="I8" t="n">
-        <v>5.973923918434523e-06</v>
+        <v>2.379299914930285e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.726669588456828e-06</v>
+        <v>9.579395813582842e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.850088851148278e-06</v>
+        <v>5.979354683428757e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002790678207335005</v>
+        <v>0.0002191593212289637</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003548745823050162</v>
+        <v>0.00439891506613707</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000015418702724</v>
+        <v>1.000023691316791</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00369982327965398</v>
+        <v>0.004586185987512047</v>
       </c>
       <c r="P8" t="n">
-        <v>112.5646441087913</v>
+        <v>111.7055893773628</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.4140562278603</v>
+        <v>166.5550014964318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_8</t>
+          <t>model_26_4_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999841464695435</v>
+        <v>0.9999796799503229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999153871619598</v>
+        <v>0.9990410679854588</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999841536227483</v>
+        <v>0.9999003026219062</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999633042984289</v>
+        <v>0.9998708831131409</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999054578893569</v>
+        <v>0.9999437432460939</v>
       </c>
       <c r="G9" t="n">
-        <v>1.479857479158583e-05</v>
+        <v>1.89678744264612e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007898237023619072</v>
+        <v>0.0008951209433236155</v>
       </c>
       <c r="I9" t="n">
-        <v>5.990768800225909e-05</v>
+        <v>2.379826812573634e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>1.531071966563248e-05</v>
+        <v>9.307937778561767e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.760946283362592e-05</v>
+        <v>5.844063241455244e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003508095894273011</v>
+        <v>0.0002230054978268744</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003846891575231336</v>
+        <v>0.004355212328516394</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000018118320522</v>
+        <v>1.000023222913917</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004010661713752297</v>
+        <v>0.004540622733873722</v>
       </c>
       <c r="P9" t="n">
-        <v>112.2419593593939</v>
+        <v>111.7455276590133</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.0913714784629</v>
+        <v>166.5949397780823</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_9</t>
+          <t>model_26_4_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999830913945438</v>
+        <v>0.9999800883126342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999152295654244</v>
+        <v>0.9990378467356966</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998213086802458</v>
+        <v>0.9998995803196974</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999592041963044</v>
+        <v>0.9998749607144344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998936992052492</v>
+        <v>0.999945076640159</v>
       </c>
       <c r="G10" t="n">
-        <v>1.578344099138669e-05</v>
+        <v>1.858668613389017e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007912947968429338</v>
+        <v>0.00089812783858001</v>
       </c>
       <c r="I10" t="n">
-        <v>6.755477080036806e-05</v>
+        <v>2.397068531424595e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>1.702142450414988e-05</v>
+        <v>9.013986615015843e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>4.228714339220148e-05</v>
+        <v>5.70554761975713e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003557638613430433</v>
+        <v>0.0002272567156107493</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003972837901473793</v>
+        <v>0.00431122791486256</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000019324120521</v>
+        <v>1.000022756214132</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004141969835847733</v>
+        <v>0.004494765812670354</v>
       </c>
       <c r="P10" t="n">
-        <v>112.1130984120551</v>
+        <v>111.7861300656099</v>
       </c>
       <c r="Q10" t="n">
-        <v>166.9625105311242</v>
+        <v>166.6355421846789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_10</t>
+          <t>model_26_4_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999820274854445</v>
+        <v>0.999980482414467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991506458528122</v>
+        <v>0.9990342025616544</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998021322118511</v>
+        <v>0.9998979474680677</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999554568217186</v>
+        <v>0.9998793574188437</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998826194926674</v>
+        <v>0.9999464130762852</v>
       </c>
       <c r="G11" t="n">
-        <v>1.677655343538544e-05</v>
+        <v>1.821880937201312e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007928348140616196</v>
+        <v>0.0009015295150876449</v>
       </c>
       <c r="I11" t="n">
-        <v>7.480449019886008e-05</v>
+        <v>2.43604552524e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.858495917739553e-05</v>
+        <v>8.697031551524024e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>4.669472468812782e-05</v>
+        <v>5.566715982714954e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003599532603835821</v>
+        <v>0.0002319272688400162</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004095919119731912</v>
+        <v>0.00426834972466094</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000020540016635</v>
+        <v>1.000022305812038</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004270290876380345</v>
+        <v>0.004450062209141761</v>
       </c>
       <c r="P11" t="n">
-        <v>111.9910565503964</v>
+        <v>111.8261120311552</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.8404686694654</v>
+        <v>166.6755241502243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_0</t>
+          <t>model_26_4_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999847563238474</v>
+        <v>0.9999808465910265</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991502377096054</v>
+        <v>0.9990300731050227</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999953128121597</v>
+        <v>0.9998950680003733</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999988349761059</v>
+        <v>0.9998840705236491</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999971619026237</v>
+        <v>0.9999477192925015</v>
       </c>
       <c r="G12" t="n">
-        <v>1.422930256840562e-05</v>
+        <v>1.787886653926069e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007932157978297804</v>
+        <v>0.0009053841815911783</v>
       </c>
       <c r="I12" t="n">
-        <v>1.772004933894766e-06</v>
+        <v>2.504779874687767e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>4.860883831820649e-07</v>
+        <v>8.357267425075034e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.129013484767494e-06</v>
+        <v>5.4310236498814e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000259797640808367</v>
+        <v>0.0002370921123333001</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003772174779673606</v>
+        <v>0.004228340873115683</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000017421344174</v>
+        <v>1.000021889610256</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003932764069522585</v>
+        <v>0.004408350097956482</v>
       </c>
       <c r="P12" t="n">
-        <v>112.320414316839</v>
+        <v>111.8637823657742</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.169826435908</v>
+        <v>166.7131944848432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_11</t>
+          <t>model_26_4_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999809704153468</v>
+        <v>0.9999811606632489</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991489905219287</v>
+        <v>0.9990253827117181</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9997840004782489</v>
+        <v>0.9998905872706882</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999519931279642</v>
+        <v>0.9998890997140671</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998721865127765</v>
+        <v>0.9999489493048983</v>
       </c>
       <c r="G13" t="n">
-        <v>1.776328197152849e-05</v>
+        <v>1.758569390580093e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007943799927806828</v>
+        <v>0.0009097624578564802</v>
       </c>
       <c r="I13" t="n">
-        <v>8.165924458421802e-05</v>
+        <v>2.611737157300519e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>2.003013236690483e-05</v>
+        <v>7.994716928186341e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>5.084503153851494e-05</v>
+        <v>5.30324752104613e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003636556991808684</v>
+        <v>0.0002427793396746841</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004214650871843181</v>
+        <v>0.004193530005353596</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000021748096746</v>
+        <v>1.000021530670573</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004394077284987601</v>
+        <v>0.004372057259485334</v>
       </c>
       <c r="P13" t="n">
-        <v>111.8767540835574</v>
+        <v>111.8968496654403</v>
       </c>
       <c r="Q13" t="n">
-        <v>166.7261662026264</v>
+        <v>166.7462617845093</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999799297211422</v>
+        <v>0.9999813958546965</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991473581410713</v>
+        <v>0.9990200508365611</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9997668746519116</v>
+        <v>0.999883997871661</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999487888541183</v>
+        <v>0.9998944216961638</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998623715734017</v>
+        <v>0.9999500390332916</v>
       </c>
       <c r="G14" t="n">
-        <v>1.873472433034073e-05</v>
+        <v>1.7366153013198e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00079590374865791</v>
+        <v>0.0009147395292733344</v>
       </c>
       <c r="I14" t="n">
-        <v>8.813371281565564e-05</v>
+        <v>2.769029443049799e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.136706657134552e-05</v>
+        <v>7.611059302763794e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>5.474947787593262e-05</v>
+        <v>5.190044372906797e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003669670650679682</v>
+        <v>0.0002490275001991013</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004328362777118009</v>
+        <v>0.004167271650996369</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000022937461552</v>
+        <v>1.000021261880347</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004512630141486073</v>
+        <v>0.004344681032620832</v>
       </c>
       <c r="P14" t="n">
-        <v>111.7702636799601</v>
+        <v>111.9219749505713</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.6196757990291</v>
+        <v>166.7713870696403</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_13</t>
+          <t>model_26_4_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999978948946064</v>
+        <v>0.9999815215923202</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991457551729653</v>
+        <v>0.999013976992698</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9997510886295534</v>
+        <v>0.999874776944123</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999459802934403</v>
+        <v>0.9999000102440502</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998533933943257</v>
+        <v>0.9999509187049104</v>
       </c>
       <c r="G15" t="n">
-        <v>1.965023481480656e-05</v>
+        <v>1.724878246073583e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007974000490226876</v>
+        <v>0.0009204091959086695</v>
       </c>
       <c r="I15" t="n">
-        <v>9.410166427363396e-05</v>
+        <v>2.989137644604828e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.253889551491838e-05</v>
+        <v>7.208185153118515e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>5.832105555678424e-05</v>
+        <v>5.098662339369545e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003695773371482536</v>
+        <v>0.0002558829700206974</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00443285853764888</v>
+        <v>0.004153165354369583</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000024058347355</v>
+        <v>1.000021118180205</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004621574502878787</v>
+        <v>0.004329974201742585</v>
       </c>
       <c r="P15" t="n">
-        <v>111.6748425397149</v>
+        <v>111.9355379979285</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.524254658784</v>
+        <v>166.7849501169975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_14</t>
+          <t>model_26_4_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999780223446699</v>
+        <v>0.9999814908832334</v>
       </c>
       <c r="C16" t="n">
-        <v>0.999144190632211</v>
+        <v>0.9990070341228666</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9997365836742099</v>
+        <v>0.9998621062973351</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999434077758531</v>
+        <v>0.9999058293091049</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998451515186182</v>
+        <v>0.9999514801816524</v>
       </c>
       <c r="G16" t="n">
-        <v>2.051517654305106e-05</v>
+        <v>1.727744804533376e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007988604791413557</v>
+        <v>0.0009268900601394649</v>
       </c>
       <c r="I16" t="n">
-        <v>9.958530463762931e-05</v>
+        <v>3.291592388502341e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>2.361223909263962e-05</v>
+        <v>6.788693196824825e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>6.15997269973876e-05</v>
+        <v>5.040335021126808e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000371806473916346</v>
+        <v>0.0002633996439785122</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004529368227805182</v>
+        <v>0.004156614974391273</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000025117320377</v>
+        <v>1.000021153276305</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004722192810347643</v>
+        <v>0.004333570679230295</v>
       </c>
       <c r="P16" t="n">
-        <v>111.5886912530955</v>
+        <v>111.9322169761124</v>
       </c>
       <c r="Q16" t="n">
-        <v>166.4381033721645</v>
+        <v>166.7816290951814</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_15</t>
+          <t>model_26_4_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999771396579232</v>
+        <v>0.9999812433614558</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991427324250318</v>
+        <v>0.9989990938122534</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9997230431235941</v>
+        <v>0.9998450565137121</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999410783094639</v>
+        <v>0.9999117697557993</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998374943347442</v>
+        <v>0.9999515843371958</v>
       </c>
       <c r="G17" t="n">
-        <v>2.133912587566917e-05</v>
+        <v>1.750849875976973e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00080022165153527</v>
+        <v>0.0009343019915575142</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001047043490020971</v>
+        <v>3.698579342324472e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>2.458417327919009e-05</v>
+        <v>6.360450930820754e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>6.464580424654904e-05</v>
+        <v>5.029515136572613e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003737570772481202</v>
+        <v>0.0002716320352672009</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004619429172058943</v>
+        <v>0.004184315805453711</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000026126105231</v>
+        <v>1.000021436158336</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004816087835450142</v>
+        <v>0.004362450792019686</v>
       </c>
       <c r="P17" t="n">
-        <v>111.5099365494141</v>
+        <v>111.905648303012</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.3593486684832</v>
+        <v>166.755060422081</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_16</t>
+          <t>model_26_4_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999763157913577</v>
+        <v>0.9999807059078945</v>
       </c>
       <c r="C18" t="n">
-        <v>0.999141347838548</v>
+        <v>0.9989899884969244</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9997105886882431</v>
+        <v>0.9998224813545205</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999389953857529</v>
+        <v>0.9999177180857919</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998304925638998</v>
+        <v>0.9999510567993097</v>
       </c>
       <c r="G18" t="n">
-        <v>2.210816915097307e-05</v>
+        <v>1.801018806773756e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008015141022415651</v>
+        <v>0.0009428014037399272</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001094127843459867</v>
+        <v>4.237459804073175e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>2.54532413078451e-05</v>
+        <v>5.931640363862385e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>6.743115395528851e-05</v>
+        <v>5.084316819113586e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003754334112963226</v>
+        <v>0.0002806456077365049</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004701932491111826</v>
+        <v>0.004243841192568068</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00002706766702</v>
+        <v>1.000022050390978</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004902103491600522</v>
+        <v>0.00442451029809804</v>
       </c>
       <c r="P18" t="n">
-        <v>111.439126745804</v>
+        <v>111.8491459128493</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.288538864873</v>
+        <v>166.6985580319183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_17</t>
+          <t>model_26_4_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999755516661831</v>
+        <v>0.9999797868245517</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991400375042361</v>
+        <v>0.9989795279245721</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9996992191820656</v>
+        <v>0.9997929472032119</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999371369499234</v>
+        <v>0.9999235317198009</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998241069379753</v>
+        <v>0.9999496800908008</v>
       </c>
       <c r="G19" t="n">
-        <v>2.282144646020012e-05</v>
+        <v>1.886811202518873e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008027372418047523</v>
+        <v>0.0009525658888648454</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001137110590746954</v>
+        <v>4.942454925456331e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>2.622864520486917e-05</v>
+        <v>5.512539927510625e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>6.99713972314724e-05</v>
+        <v>5.227332031206835e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003768626797248175</v>
+        <v>0.0002904650161404944</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004777179760088594</v>
+        <v>0.004343744010089536</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000027940952934</v>
+        <v>1.000023100771941</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004980554192600951</v>
+        <v>0.00452866618538874</v>
       </c>
       <c r="P19" t="n">
-        <v>111.3756196598074</v>
+        <v>111.7560745104973</v>
       </c>
       <c r="Q19" t="n">
-        <v>166.2250317788765</v>
+        <v>166.6054866295663</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_18</t>
+          <t>model_26_4_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999748414585697</v>
+        <v>0.9999783656821398</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991388195516607</v>
+        <v>0.9989674715562625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9996887681318434</v>
+        <v>0.9997546479161296</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999354596515426</v>
+        <v>0.9999289848279875</v>
       </c>
       <c r="F20" t="n">
-        <v>0.999818263723976</v>
+        <v>0.9999471710041884</v>
       </c>
       <c r="G20" t="n">
-        <v>2.348439409285835e-05</v>
+        <v>2.019468608563559e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008038741470719465</v>
+        <v>0.0009638199794684228</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001176621088702578</v>
+        <v>5.856678268574159e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.692847227462738e-05</v>
+        <v>5.11942952239276e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>7.229586553709504e-05</v>
+        <v>5.487980927967783e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003780886236802376</v>
+        <v>0.0003011561218065388</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004846069963677614</v>
+        <v>0.004493849806750955</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000028752618777</v>
+        <v>1.000024724934697</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005052377194779136</v>
+        <v>0.004685162296575869</v>
       </c>
       <c r="P20" t="n">
-        <v>111.3183488771374</v>
+        <v>111.6201821064647</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.1677609962064</v>
+        <v>166.4695942255337</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_19</t>
+          <t>model_26_4_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999741892209821</v>
+        <v>0.999976291709006</v>
       </c>
       <c r="C21" t="n">
-        <v>0.999137685399209</v>
+        <v>0.998953546348885</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9996792974381457</v>
+        <v>0.9997053133861391</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999339327398402</v>
+        <v>0.9999337812685649</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998129642201408</v>
+        <v>0.9999431663908306</v>
       </c>
       <c r="G21" t="n">
-        <v>2.409322925090752e-05</v>
+        <v>2.213064896919195e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008049328286020832</v>
+        <v>0.0009768185493094113</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000121242532043311</v>
+        <v>7.034318438274349e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>2.756555280530487e-05</v>
+        <v>4.773657783785593e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>7.440404242430792e-05</v>
+        <v>5.903988111029971e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003791554170299069</v>
+        <v>0.0003127656230357724</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004908485433502632</v>
+        <v>0.004704322370883181</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000029498033163</v>
+        <v>1.000027095189707</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00511744982037244</v>
+        <v>0.004904595113501477</v>
       </c>
       <c r="P21" t="n">
-        <v>111.2671594017711</v>
+        <v>111.4370941580352</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.1165715208401</v>
+        <v>166.2865062771043</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_20</t>
+          <t>model_26_4_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999735846364746</v>
+        <v>0.9999733744898419</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991366389378489</v>
+        <v>0.9989374296448014</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9996705690491208</v>
+        <v>0.9996421754497713</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999326001089718</v>
+        <v>0.9999375130766669</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999808109788222</v>
+        <v>0.9999372071128827</v>
       </c>
       <c r="G22" t="n">
-        <v>2.465758235058779e-05</v>
+        <v>2.485374500775344e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008059096543473483</v>
+        <v>0.0009918627851298986</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001245423247855517</v>
+        <v>8.541452895885279e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>2.812157263240299e-05</v>
+        <v>4.504634587366725e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>7.6335166825771e-05</v>
+        <v>6.523049730884281e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003800784241299618</v>
+        <v>0.0003254521510651548</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004965640175303461</v>
+        <v>0.004985353047453454</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000030188986886</v>
+        <v>1.000030429154466</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005177037757858356</v>
+        <v>0.005197589847787045</v>
       </c>
       <c r="P22" t="n">
-        <v>111.2208522086907</v>
+        <v>111.2050042244781</v>
       </c>
       <c r="Q22" t="n">
-        <v>166.0702643277598</v>
+        <v>166.0544163435472</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_21</t>
+          <t>model_26_4_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999730373399535</v>
+        <v>0.9999693754300233</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991356612733704</v>
+        <v>0.9989187318865926</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999662734987003</v>
+        <v>0.9995617880591434</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999313750957963</v>
+        <v>0.9999396670946252</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999803754764706</v>
+        <v>0.9999287186593157</v>
       </c>
       <c r="G23" t="n">
-        <v>2.516845962948759e-05</v>
+        <v>2.858669180999295e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008068222612235381</v>
+        <v>0.001009316321681059</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001275040146512499</v>
+        <v>0.0001046034054636142</v>
       </c>
       <c r="J23" t="n">
-        <v>2.863269062482962e-05</v>
+        <v>4.349353077580421e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>7.806762333589738e-05</v>
+        <v>7.404847133386944e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003808870245665924</v>
+        <v>0.000339192651461637</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005016817679514334</v>
+        <v>0.005346652392852274</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000030814468625</v>
+        <v>1.000034999508545</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005230393994375524</v>
+        <v>0.005574270454312243</v>
       </c>
       <c r="P23" t="n">
-        <v>111.1798378987186</v>
+        <v>110.9251385395259</v>
       </c>
       <c r="Q23" t="n">
-        <v>166.0292500177877</v>
+        <v>165.7745506585949</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_22</t>
+          <t>model_26_4_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999725354335152</v>
+        <v>0.9999639921241794</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991347653388463</v>
+        <v>0.9988969698982162</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9996556063229524</v>
+        <v>0.9994598106029945</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999302861851391</v>
+        <v>0.9999395682366251</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997997971833605</v>
+        <v>0.9999169679362826</v>
       </c>
       <c r="G24" t="n">
-        <v>2.563696725841167e-05</v>
+        <v>3.361177151540036e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008076585767748175</v>
+        <v>0.001029630182589572</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001301990267353138</v>
+        <v>0.0001289459397470272</v>
       </c>
       <c r="J24" t="n">
-        <v>2.908702192521167e-05</v>
+        <v>4.356479675322174e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>7.964197478109085e-05</v>
+        <v>8.625535562245583e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003815696702159242</v>
+        <v>0.0003539585923812019</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00506329608638599</v>
+        <v>0.005797565999227638</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000031388075983</v>
+        <v>1.000041151858081</v>
       </c>
       <c r="O24" t="n">
-        <v>0.005278851083251272</v>
+        <v>0.00604438038643085</v>
       </c>
       <c r="P24" t="n">
-        <v>111.1429504291217</v>
+        <v>110.6012684192611</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.9923625481907</v>
+        <v>165.4506805383301</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_23</t>
+          <t>model_26_4_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.999972075978663</v>
+        <v>0.9999568478852913</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991339467474591</v>
+        <v>0.9988715730542866</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9996491633810067</v>
+        <v>0.9993309101389117</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999292746305148</v>
+        <v>0.9999363309356666</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9997962025614948</v>
+        <v>0.9999010349321749</v>
       </c>
       <c r="G25" t="n">
-        <v>2.606584819526656e-05</v>
+        <v>4.028060492166812e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008084226959027048</v>
+        <v>0.001053337021605165</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001326347995921825</v>
+        <v>0.000159715132121236</v>
       </c>
       <c r="J25" t="n">
-        <v>2.950907760515512e-05</v>
+        <v>4.589854229379761e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>8.10719385986688e-05</v>
+        <v>0.0001028068764918532</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003821839974782798</v>
+        <v>0.0003697555161278859</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005105472377289545</v>
+        <v>0.006346700317619237</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000031913167242</v>
+        <v>1.000049316702524</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00532282290617555</v>
+        <v>0.006616892489621127</v>
       </c>
       <c r="P25" t="n">
-        <v>111.1097691974653</v>
+        <v>110.2392809446208</v>
       </c>
       <c r="Q25" t="n">
-        <v>165.9591813165343</v>
+        <v>165.0886930636898</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_26_4_24</t>
+          <t>model_26_4_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999716534020868</v>
+        <v>0.9999474700067267</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991332087137966</v>
+        <v>0.9988418841332297</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9996432303924634</v>
+        <v>0.9991684127059427</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999283951898722</v>
+        <v>0.9999288340692507</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9997929214098785</v>
+        <v>0.9998797703709493</v>
       </c>
       <c r="G26" t="n">
-        <v>2.646030488015414e-05</v>
+        <v>4.903444292043912e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008091116179307858</v>
+        <v>0.001081050326218786</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000134877783088865</v>
+        <v>0.0001985040908028137</v>
       </c>
       <c r="J26" t="n">
-        <v>2.987601074900582e-05</v>
+        <v>5.130297604605744e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>8.237720192446463e-05</v>
+        <v>0.0001248969247037952</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003827203493180387</v>
+        <v>0.0003867015158545302</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0051439580947121</v>
+        <v>0.007002459776424219</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000032396111901</v>
+        <v>1.000060034278027</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005362947040265202</v>
+        <v>0.007300568986196653</v>
       </c>
       <c r="P26" t="n">
-        <v>111.0797297540804</v>
+        <v>109.8459751800805</v>
       </c>
       <c r="Q26" t="n">
-        <v>165.9291418731495</v>
+        <v>164.6953872991496</v>
       </c>
     </row>
   </sheetData>
